--- a/DADOS/PRJ_InvModelo.xlsx
+++ b/DADOS/PRJ_InvModelo.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -362,15 +362,20 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>fazenda</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>talhao</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>idade</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>area</t>
         </is>
@@ -379,52 +384,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>301a</t>
         </is>
       </c>
-      <c r="B2">
-        <v>3.7</v>
-      </c>
       <c r="C2">
+        <v>3.7</v>
+      </c>
+      <c r="D2">
         <v>18.933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>301d</t>
         </is>
       </c>
-      <c r="B3">
-        <v>3.7</v>
-      </c>
       <c r="C3">
+        <v>3.7</v>
+      </c>
+      <c r="D3">
         <v>34.468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>302a</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>5.2</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>302a</t>
+        </is>
       </c>
       <c r="C4">
+        <v>5.2</v>
+      </c>
+      <c r="D4">
         <v>47.602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>302c</t>
         </is>
       </c>
-      <c r="B5">
-        <v>5.2</v>
-      </c>
       <c r="C5">
+        <v>5.2</v>
+      </c>
+      <c r="D5">
         <v>28.781</v>
       </c>
     </row>
@@ -444,7 +469,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>fase</t>
+          <t>as.numeric(fase)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/DADOS/PRJ_InvModelo.xlsx
+++ b/DADOS/PRJ_InvModelo.xlsx
@@ -469,7 +469,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>as.numeric(fase)</t>
+          <t>fase</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
